--- a/CSV/CurrentFile/Roadmap.xlsx
+++ b/CSV/CurrentFile/Roadmap.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="138">
   <si>
     <t xml:space="preserve">Project</t>
   </si>
@@ -512,7 +512,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,7 +618,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBCAED5"/>
-        <bgColor rgb="FFCC99FF"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -637,6 +637,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF58220"/>
         <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDC85E9"/>
+        <bgColor rgb="FFFF99CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF63BBEE"/>
+        <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -713,7 +725,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -846,10 +858,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -874,19 +882,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="24" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="24" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="26" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -952,10 +968,10 @@
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFDC85E9"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF63BBEE"/>
       <rgbColor rgb="FF72E400"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFF58220"/>
@@ -1012,7 +1028,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="14.43"/>
@@ -5099,7 +5115,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5189,54 +5205,60 @@
       </c>
       <c r="B6" s="32"/>
       <c r="D6" s="19"/>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="F6" s="34"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="34"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="36"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="36"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="38"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="39"/>
+      <c r="B9" s="38"/>
       <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="39"/>
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
         <v>133</v>
       </c>
       <c r="B10" s="40"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="E10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="41"/>
     </row>
     <row r="11" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="41"/>
+      <c r="B11" s="42"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
     </row>
@@ -5244,7 +5266,7 @@
       <c r="A12" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="43"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
     </row>
@@ -5252,7 +5274,7 @@
       <c r="A13" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="44"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
     </row>
@@ -5260,7 +5282,7 @@
       <c r="A14" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B14" s="44"/>
+      <c r="B14" s="45"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
     </row>

--- a/CSV/CurrentFile/Roadmap.xlsx
+++ b/CSV/CurrentFile/Roadmap.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Roadmap" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Color" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Roadmap!$A:$A</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="134">
   <si>
     <t xml:space="preserve">Project</t>
   </si>
@@ -383,15 +386,9 @@
     <t xml:space="preserve">Manufacturing/Engineering </t>
   </si>
   <si>
-    <t xml:space="preserve">JDE – RevRec </t>
-  </si>
-  <si>
     <t xml:space="preserve">Call Center </t>
   </si>
   <si>
-    <t xml:space="preserve">NE – CRM </t>
-  </si>
-  <si>
     <t xml:space="preserve">Service Sales </t>
   </si>
   <si>
@@ -413,16 +410,10 @@
     <t xml:space="preserve">Finance </t>
   </si>
   <si>
-    <t xml:space="preserve">GSS – Sales </t>
-  </si>
-  <si>
     <t xml:space="preserve">IT </t>
   </si>
   <si>
     <t xml:space="preserve">GSS - FS/CC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otis ONE – Multimedia </t>
   </si>
   <si>
     <t xml:space="preserve">SVC - Customer Portal </t>
@@ -512,7 +503,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,7 +609,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBCAED5"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFCC99FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -637,18 +628,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF58220"/>
         <bgColor rgb="FFFF6600"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDC85E9"/>
-        <bgColor rgb="FFFF99CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF63BBEE"/>
-        <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -725,7 +704,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -882,27 +861,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="24" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="26" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -968,10 +939,10 @@
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFDC85E9"/>
+      <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF63BBEE"/>
+      <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF72E400"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFF58220"/>
@@ -991,14 +962,25 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A2:E185" headerRowCount="0" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A2:E185" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A2:E185">
+    <filterColumn colId="0">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Otis ONE - Multimedia"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3"/>
-    <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="1" name="JDE"/>
+    <tableColumn id="2" name="Americas"/>
+    <tableColumn id="3" name="Argentina"/>
+    <tableColumn id="4" name="Fin"/>
+    <tableColumn id="5" name=""/>
   </tableColumns>
 </table>
 </file>
@@ -1020,7 +1002,7 @@
   <dimension ref="A1:G185"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B170" activeCellId="0" sqref="B170"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1078,7 +1060,7 @@
         <v>44104</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -1099,7 +1081,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1120,7 +1102,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
@@ -1141,7 +1123,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1162,7 +1144,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
@@ -1183,7 +1165,7 @@
         <v>43616</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -1204,7 +1186,7 @@
         <v>43616</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1225,7 +1207,7 @@
         <v>44926</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -1246,7 +1228,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
         <v>27</v>
       </c>
@@ -1267,7 +1249,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1288,7 +1270,7 @@
         <v>44377</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
@@ -1309,7 +1291,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
@@ -1330,7 +1312,7 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
         <v>7</v>
       </c>
@@ -1351,7 +1333,7 @@
         <v>44742</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -1372,7 +1354,7 @@
         <v>43373</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
         <v>7</v>
       </c>
@@ -1393,7 +1375,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
@@ -1414,7 +1396,7 @@
         <v>44926</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
         <v>7</v>
       </c>
@@ -1477,7 +1459,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
@@ -1498,7 +1480,7 @@
         <v>44377</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
         <v>7</v>
       </c>
@@ -1519,7 +1501,7 @@
         <v>44286</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
@@ -1540,7 +1522,7 @@
         <v>43312</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
         <v>7</v>
       </c>
@@ -1561,7 +1543,7 @@
         <v>44651</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
@@ -1582,7 +1564,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
         <v>7</v>
       </c>
@@ -1603,7 +1585,7 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
         <v>44</v>
       </c>
@@ -1624,7 +1606,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
         <v>45</v>
       </c>
@@ -1645,7 +1627,7 @@
         <v>43585</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
@@ -1666,7 +1648,7 @@
         <v>44926</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
         <v>18</v>
       </c>
@@ -1687,7 +1669,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -1708,7 +1690,7 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
         <v>27</v>
       </c>
@@ -1771,7 +1753,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
         <v>14</v>
       </c>
@@ -1813,7 +1795,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
         <v>7</v>
       </c>
@@ -1834,7 +1816,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
         <v>7</v>
       </c>
@@ -1855,7 +1837,7 @@
         <v>44926</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
         <v>44</v>
       </c>
@@ -1876,7 +1858,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
         <v>45</v>
       </c>
@@ -1897,7 +1879,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
         <v>7</v>
       </c>
@@ -1918,7 +1900,7 @@
         <v>43312</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
         <v>14</v>
       </c>
@@ -1939,7 +1921,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
         <v>18</v>
       </c>
@@ -1960,7 +1942,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
         <v>31</v>
       </c>
@@ -1981,7 +1963,7 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
         <v>27</v>
       </c>
@@ -2044,7 +2026,7 @@
         <v>43616</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
         <v>7</v>
       </c>
@@ -2065,7 +2047,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
         <v>44</v>
       </c>
@@ -2086,7 +2068,7 @@
         <v>44377</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="s">
         <v>45</v>
       </c>
@@ -2107,7 +2089,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
         <v>7</v>
       </c>
@@ -2128,7 +2110,7 @@
         <v>44135</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
         <v>7</v>
       </c>
@@ -2149,7 +2131,7 @@
         <v>43190</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
         <v>31</v>
       </c>
@@ -2235,7 +2217,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
         <v>7</v>
       </c>
@@ -2258,7 +2240,7 @@
         <v>44804</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
         <v>7</v>
       </c>
@@ -2281,7 +2263,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
         <v>7</v>
       </c>
@@ -2304,7 +2286,7 @@
         <v>44286</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
         <v>14</v>
       </c>
@@ -2327,7 +2309,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
         <v>18</v>
       </c>
@@ -2350,7 +2332,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
         <v>27</v>
       </c>
@@ -2373,7 +2355,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
         <v>7</v>
       </c>
@@ -2396,7 +2378,7 @@
         <v>43159</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="s">
         <v>18</v>
       </c>
@@ -2419,7 +2401,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
         <v>31</v>
       </c>
@@ -2442,7 +2424,7 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
         <v>44</v>
       </c>
@@ -2465,7 +2447,7 @@
         <v>44377</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
         <v>45</v>
       </c>
@@ -2488,7 +2470,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="8" t="s">
         <v>7</v>
       </c>
@@ -2511,7 +2493,7 @@
         <v>44043</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
         <v>14</v>
       </c>
@@ -2534,7 +2516,7 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="s">
         <v>44</v>
       </c>
@@ -2557,7 +2539,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
         <v>45</v>
       </c>
@@ -2580,7 +2562,7 @@
         <v>43738</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="8" t="s">
         <v>7</v>
       </c>
@@ -2626,7 +2608,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="8" t="s">
         <v>7</v>
       </c>
@@ -2649,7 +2631,7 @@
         <v>44377</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
         <v>7</v>
       </c>
@@ -2672,7 +2654,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="8" t="s">
         <v>7</v>
       </c>
@@ -2695,7 +2677,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
         <v>7</v>
       </c>
@@ -2718,7 +2700,7 @@
         <v>44804</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="8" t="s">
         <v>44</v>
       </c>
@@ -2741,7 +2723,7 @@
         <v>44377</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
         <v>45</v>
       </c>
@@ -2764,7 +2746,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="8" t="s">
         <v>7</v>
       </c>
@@ -2787,7 +2769,7 @@
         <v>44135</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
         <v>14</v>
       </c>
@@ -2810,7 +2792,7 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="8" t="s">
         <v>18</v>
       </c>
@@ -2833,7 +2815,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
         <v>27</v>
       </c>
@@ -2879,7 +2861,7 @@
         <v>43738</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
         <v>7</v>
       </c>
@@ -2925,7 +2907,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
         <v>7</v>
       </c>
@@ -2948,7 +2930,7 @@
         <v>44043</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="8" t="s">
         <v>7</v>
       </c>
@@ -2971,7 +2953,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
         <v>18</v>
       </c>
@@ -2994,7 +2976,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="8" t="s">
         <v>31</v>
       </c>
@@ -3017,7 +2999,7 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
         <v>7</v>
       </c>
@@ -3040,7 +3022,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="8" t="s">
         <v>18</v>
       </c>
@@ -3063,7 +3045,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
         <v>7</v>
       </c>
@@ -3086,7 +3068,7 @@
         <v>44926</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="8" t="s">
         <v>7</v>
       </c>
@@ -3109,7 +3091,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
         <v>14</v>
       </c>
@@ -3132,7 +3114,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="8" t="s">
         <v>27</v>
       </c>
@@ -3155,7 +3137,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
         <v>7</v>
       </c>
@@ -3201,7 +3183,7 @@
         <v>43616</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
         <v>7</v>
       </c>
@@ -3224,7 +3206,7 @@
         <v>43799</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="8" t="s">
         <v>7</v>
       </c>
@@ -3247,7 +3229,7 @@
         <v>43799</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
         <v>14</v>
       </c>
@@ -3270,7 +3252,7 @@
         <v>44286</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="8" t="s">
         <v>27</v>
       </c>
@@ -3293,7 +3275,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
         <v>31</v>
       </c>
@@ -3316,7 +3298,7 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="8" t="s">
         <v>7</v>
       </c>
@@ -3339,7 +3321,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
         <v>7</v>
       </c>
@@ -3362,7 +3344,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="8" t="s">
         <v>14</v>
       </c>
@@ -3385,7 +3367,7 @@
         <v>44286</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
         <v>27</v>
       </c>
@@ -3431,7 +3413,7 @@
         <v>43738</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
         <v>44</v>
       </c>
@@ -3454,7 +3436,7 @@
         <v>44377</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="8" t="s">
         <v>45</v>
       </c>
@@ -3477,7 +3459,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
         <v>18</v>
       </c>
@@ -3523,7 +3505,7 @@
         <v>43616</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
         <v>84</v>
       </c>
@@ -3546,7 +3528,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="8" t="s">
         <v>31</v>
       </c>
@@ -3569,7 +3551,7 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
         <v>84</v>
       </c>
@@ -3592,7 +3574,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="8" t="s">
         <v>14</v>
       </c>
@@ -3615,7 +3597,7 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
         <v>14</v>
       </c>
@@ -3638,7 +3620,7 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="8" t="s">
         <v>84</v>
       </c>
@@ -3661,7 +3643,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
         <v>14</v>
       </c>
@@ -3684,7 +3666,7 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="8" t="s">
         <v>84</v>
       </c>
@@ -3707,7 +3689,7 @@
         <v>43434</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
         <v>93</v>
       </c>
@@ -3730,7 +3712,7 @@
         <v>44104</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="8" t="s">
         <v>93</v>
       </c>
@@ -3753,7 +3735,7 @@
         <v>43404</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
         <v>45</v>
       </c>
@@ -3776,7 +3758,7 @@
         <v>43585</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="8" t="s">
         <v>93</v>
       </c>
@@ -3799,7 +3781,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
         <v>44</v>
       </c>
@@ -3822,7 +3804,7 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="8" t="s">
         <v>93</v>
       </c>
@@ -3845,7 +3827,7 @@
         <v>44104</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="s">
         <v>93</v>
       </c>
@@ -3868,7 +3850,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="8" t="s">
         <v>14</v>
       </c>
@@ -3891,7 +3873,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="s">
         <v>93</v>
       </c>
@@ -3914,7 +3896,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="8" t="s">
         <v>14</v>
       </c>
@@ -3937,7 +3919,7 @@
         <v>43890</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
         <v>27</v>
       </c>
@@ -3960,7 +3942,7 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="8" t="s">
         <v>93</v>
       </c>
@@ -3983,7 +3965,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="s">
         <v>18</v>
       </c>
@@ -4006,7 +3988,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="8" t="s">
         <v>31</v>
       </c>
@@ -4029,7 +4011,7 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="s">
         <v>84</v>
       </c>
@@ -4052,7 +4034,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="8" t="s">
         <v>93</v>
       </c>
@@ -4075,7 +4057,7 @@
         <v>43708</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3" t="s">
         <v>93</v>
       </c>
@@ -4098,7 +4080,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="8" t="s">
         <v>44</v>
       </c>
@@ -4121,7 +4103,7 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3" t="s">
         <v>45</v>
       </c>
@@ -4144,7 +4126,7 @@
         <v>43738</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="8" t="s">
         <v>93</v>
       </c>
@@ -4167,7 +4149,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="s">
         <v>14</v>
       </c>
@@ -4190,7 +4172,7 @@
         <v>43890</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="8" t="s">
         <v>18</v>
       </c>
@@ -4213,7 +4195,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="s">
         <v>27</v>
       </c>
@@ -4236,7 +4218,7 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="8" t="s">
         <v>84</v>
       </c>
@@ -4259,7 +4241,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="s">
         <v>93</v>
       </c>
@@ -4282,7 +4264,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="8" t="s">
         <v>93</v>
       </c>
@@ -4305,7 +4287,7 @@
         <v>43708</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="s">
         <v>44</v>
       </c>
@@ -4328,7 +4310,7 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="8" t="s">
         <v>45</v>
       </c>
@@ -4349,7 +4331,7 @@
         <v>43585</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="3" t="s">
         <v>93</v>
       </c>
@@ -4370,7 +4352,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="8" t="s">
         <v>84</v>
       </c>
@@ -4391,7 +4373,7 @@
         <v>43434</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3" t="s">
         <v>93</v>
       </c>
@@ -4412,7 +4394,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="8" t="s">
         <v>31</v>
       </c>
@@ -4433,7 +4415,7 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="3" t="s">
         <v>93</v>
       </c>
@@ -4454,7 +4436,7 @@
         <v>43982</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="8" t="s">
         <v>18</v>
       </c>
@@ -4475,7 +4457,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3" t="s">
         <v>31</v>
       </c>
@@ -4496,7 +4478,7 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="8" t="s">
         <v>93</v>
       </c>
@@ -4517,7 +4499,7 @@
         <v>43982</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3" t="s">
         <v>14</v>
       </c>
@@ -4538,7 +4520,7 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="8" t="s">
         <v>93</v>
       </c>
@@ -4559,7 +4541,7 @@
         <v>44104</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3" t="s">
         <v>44</v>
       </c>
@@ -4580,7 +4562,7 @@
         <v>44377</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="14" t="s">
         <v>45</v>
       </c>
@@ -4601,7 +4583,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="15" t="s">
         <v>14</v>
       </c>
@@ -4622,7 +4604,7 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="8" t="s">
         <v>18</v>
       </c>
@@ -4643,7 +4625,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="3" t="s">
         <v>31</v>
       </c>
@@ -4664,7 +4646,7 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="8" t="s">
         <v>84</v>
       </c>
@@ -4685,7 +4667,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3" t="s">
         <v>93</v>
       </c>
@@ -4706,7 +4688,7 @@
         <v>43982</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="8" t="s">
         <v>93</v>
       </c>
@@ -4727,7 +4709,7 @@
         <v>44104</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="3" t="s">
         <v>93</v>
       </c>
@@ -4747,7 +4729,7 @@
         <v>43982</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="14" t="s">
         <v>93</v>
       </c>
@@ -4767,7 +4749,7 @@
         <v>44104</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="4" t="s">
         <v>18</v>
       </c>
@@ -4787,7 +4769,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="9" t="s">
         <v>110</v>
       </c>
@@ -4807,7 +4789,7 @@
         <v>43738</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="4" t="s">
         <v>110</v>
       </c>
@@ -4827,7 +4809,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="9" t="s">
         <v>110</v>
       </c>
@@ -4847,7 +4829,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="4" t="s">
         <v>110</v>
       </c>
@@ -4867,7 +4849,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="9" t="s">
         <v>110</v>
       </c>
@@ -4887,7 +4869,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="4" t="s">
         <v>110</v>
       </c>
@@ -4907,7 +4889,7 @@
         <v>43738</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="9" t="s">
         <v>110</v>
       </c>
@@ -4927,7 +4909,7 @@
         <v>43738</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="4" t="s">
         <v>110</v>
       </c>
@@ -4947,7 +4929,7 @@
         <v>43738</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="9" t="s">
         <v>110</v>
       </c>
@@ -4967,7 +4949,7 @@
         <v>43738</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="4" t="s">
         <v>111</v>
       </c>
@@ -4987,7 +4969,7 @@
         <v>43404</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="9" t="s">
         <v>111</v>
       </c>
@@ -5007,7 +4989,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="4" t="s">
         <v>111</v>
       </c>
@@ -5027,7 +5009,7 @@
         <v>43434</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="9" t="s">
         <v>111</v>
       </c>
@@ -5047,7 +5029,7 @@
         <v>43404</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="4" t="s">
         <v>111</v>
       </c>
@@ -5067,7 +5049,7 @@
         <v>43434</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="9" t="s">
         <v>111</v>
       </c>
@@ -5088,6 +5070,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A:A"/>
   <conditionalFormatting sqref="F1:G990">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>LEN(TRIM(F1))&gt;0</formula>
@@ -5100,9 +5083,10 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
   <tableParts>
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5114,13 +5098,14 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="16" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="18.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="16" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="16" width="14.16"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="16" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
@@ -5162,8 +5147,8 @@
       <c r="F2" s="23"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
-        <v>120</v>
+      <c r="A3" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="21" t="s">
@@ -5171,13 +5156,13 @@
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F3" s="26"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
-        <v>122</v>
+      <c r="A4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="21" t="s">
@@ -5185,104 +5170,98 @@
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F4" s="29"/>
     </row>
     <row r="5" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B5" s="30"/>
       <c r="E5" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F5" s="31"/>
     </row>
     <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B6" s="32"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F6" s="33"/>
     </row>
     <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B7" s="34"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F7" s="35"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
-        <v>130</v>
+      <c r="A8" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="B8" s="36"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F8" s="37"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B9" s="38"/>
       <c r="D9" s="19"/>
-      <c r="E9" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="39"/>
-    </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="40"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="39"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="41"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="42"/>
+        <v>130</v>
+      </c>
+      <c r="B11" s="40"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="43"/>
+        <v>131</v>
+      </c>
+      <c r="B12" s="41"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
     </row>
     <row r="13" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="44"/>
+        <v>132</v>
+      </c>
+      <c r="B13" s="42"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
     </row>
     <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="45"/>
+        <v>133</v>
+      </c>
+      <c r="B14" s="43"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
     </row>
